--- a/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C633E85-CF1E-4F37-B7B8-3F4D43F1860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9A1ADF-13C2-462A-B828-8CF72B6BA941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57A7094A-A0F0-4E48-B461-DD754EEDFF90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50A75A1F-268A-4C21-9134-AAE4C78E2994}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="276">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -239,616 +239,634 @@
     <t>3,96%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63FAC06-A157-4FA8-8662-30D90F54A63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B92FCED-11E3-4C80-BE24-123AA855DD81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2237,7 +2255,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2288,7 +2306,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2323,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1738FCDB-5F6A-4EFD-813A-92D639C137CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511BAF7-B8DE-456E-9201-CEA882646723}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3386,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28915D36-3DF3-45AF-BFD3-CED83E7F4541}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F622D0-97E3-41AC-A551-5D9A18FF6CD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +3859,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3850,13 +3868,13 @@
         <v>116793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3889,13 @@
         <v>999939</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -3886,13 +3904,13 @@
         <v>948612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1821</v>
@@ -3901,13 +3919,13 @@
         <v>1948551</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3993,13 @@
         <v>27756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -3990,13 +4008,13 @@
         <v>72276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -4005,13 +4023,13 @@
         <v>100032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4044,13 @@
         <v>731796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -4041,13 +4059,13 @@
         <v>712735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>1340</v>
@@ -4056,13 +4074,13 @@
         <v>1444531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4148,13 @@
         <v>42002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -4145,13 +4163,13 @@
         <v>115714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -4160,13 +4178,13 @@
         <v>157716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4199,13 @@
         <v>895565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>858</v>
@@ -4196,13 +4214,13 @@
         <v>928065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>1749</v>
@@ -4211,13 +4229,13 @@
         <v>1823630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4303,13 @@
         <v>110570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -4300,13 +4318,13 @@
         <v>361195</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>435</v>
@@ -4315,13 +4333,13 @@
         <v>471765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4354,13 @@
         <v>3283780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>3010</v>
@@ -4351,13 +4369,13 @@
         <v>3183347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>6134</v>
@@ -4366,13 +4384,13 @@
         <v>6467127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8750125E-2E2D-4006-8248-FED24A95CCBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDA8C3-792A-4AC0-8D41-4CA5774DF0C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,7 +4484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4573,13 +4591,13 @@
         <v>7987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4588,13 +4606,13 @@
         <v>10678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4603,13 +4621,13 @@
         <v>18665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4642,13 @@
         <v>93995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>221</v>
@@ -4639,13 +4657,13 @@
         <v>120055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>330</v>
@@ -4654,13 +4672,13 @@
         <v>214050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4746,13 @@
         <v>43969</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -4743,13 +4761,13 @@
         <v>71161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -4758,13 +4776,13 @@
         <v>115130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4797,13 @@
         <v>505854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>869</v>
@@ -4794,13 +4812,13 @@
         <v>548806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>1434</v>
@@ -4809,13 +4827,13 @@
         <v>1054660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4901,13 @@
         <v>46616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4898,13 +4916,13 @@
         <v>119721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -4913,13 +4931,13 @@
         <v>166336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4952,13 @@
         <v>992632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>1336</v>
@@ -4949,13 +4967,13 @@
         <v>940358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>2249</v>
@@ -4964,13 +4982,13 @@
         <v>1932991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5056,13 @@
         <v>43453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5053,13 +5071,13 @@
         <v>107947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5068,13 +5086,13 @@
         <v>151400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5107,13 @@
         <v>685319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>898</v>
@@ -5104,13 +5122,13 @@
         <v>766424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>1534</v>
@@ -5119,13 +5137,13 @@
         <v>1451742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5211,13 @@
         <v>67241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -5208,13 +5226,13 @@
         <v>146651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>287</v>
@@ -5223,13 +5241,13 @@
         <v>213892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5262,13 @@
         <v>898162</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>1351</v>
@@ -5259,13 +5277,13 @@
         <v>1003781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>2281</v>
@@ -5274,13 +5292,13 @@
         <v>1901943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5366,13 @@
         <v>209266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>692</v>
@@ -5363,13 +5381,13 @@
         <v>456158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>915</v>
@@ -5378,13 +5396,13 @@
         <v>665425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5417,13 @@
         <v>3175962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>4675</v>
@@ -5414,28 +5432,28 @@
         <v>3379423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>7828</v>
       </c>
       <c r="N20" s="7">
-        <v>6555384</v>
+        <v>6555383</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +5495,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9A1ADF-13C2-462A-B828-8CF72B6BA941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42492CEF-142F-4699-A7E9-EC395A553FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50A75A1F-268A-4C21-9134-AAE4C78E2994}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F319112A-C10B-4738-A7E3-FDE12DE3D786}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="274">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,187 +233,187 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>6,48%</t>
@@ -422,427 +422,421 @@
     <t>5,3%</t>
   </si>
   <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>93,82%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
   </si>
   <si>
     <t>92,9%</t>
@@ -1278,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B92FCED-11E3-4C80-BE24-123AA855DD81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5200BC97-23C8-4115-8F88-50AC2953DA43}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2225,7 +2219,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2276,7 +2270,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2341,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511BAF7-B8DE-456E-9201-CEA882646723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F79E55-1F3F-4051-AFA8-048316B02762}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F622D0-97E3-41AC-A551-5D9A18FF6CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EBFA86-9389-43B8-80F2-04413582245C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,13 +4157,13 @@
         <v>115714</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -4178,13 +4172,13 @@
         <v>157716</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4193,13 @@
         <v>895565</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>858</v>
@@ -4214,13 +4208,13 @@
         <v>928065</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>1749</v>
@@ -4229,13 +4223,13 @@
         <v>1823630</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4297,13 @@
         <v>110570</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -4318,13 +4312,13 @@
         <v>361195</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>435</v>
@@ -4333,13 +4327,13 @@
         <v>471765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4348,13 @@
         <v>3283780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>3010</v>
@@ -4369,13 +4363,13 @@
         <v>3183347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>6134</v>
@@ -4384,13 +4378,13 @@
         <v>6467127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DDA8C3-792A-4AC0-8D41-4CA5774DF0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A781A-F7B0-41BC-B75B-E6BC37B7D2D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4484,7 +4478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4591,13 +4585,13 @@
         <v>7987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4606,13 +4600,13 @@
         <v>10678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4621,13 +4615,13 @@
         <v>18665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4636,13 @@
         <v>93995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>221</v>
@@ -4657,13 +4651,13 @@
         <v>120055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>330</v>
@@ -4672,13 +4666,13 @@
         <v>214050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4740,13 @@
         <v>43969</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -4761,13 +4755,13 @@
         <v>71161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -4776,13 +4770,13 @@
         <v>115130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4791,13 @@
         <v>505854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>869</v>
@@ -4812,13 +4806,13 @@
         <v>548806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>1434</v>
@@ -4827,13 +4821,13 @@
         <v>1054660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4895,13 @@
         <v>46616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4916,13 +4910,13 @@
         <v>119721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -4931,13 +4925,13 @@
         <v>166336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4946,13 @@
         <v>992632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>1336</v>
@@ -4967,13 +4961,13 @@
         <v>940358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>2249</v>
@@ -4982,13 +4976,13 @@
         <v>1932991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5050,13 @@
         <v>43453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5071,13 +5065,13 @@
         <v>107947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5086,13 +5080,13 @@
         <v>151400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5101,13 @@
         <v>685319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>898</v>
@@ -5122,13 +5116,13 @@
         <v>766424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>1534</v>
@@ -5137,13 +5131,13 @@
         <v>1451742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5205,13 @@
         <v>67241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -5226,13 +5220,13 @@
         <v>146651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>287</v>
@@ -5241,13 +5235,13 @@
         <v>213892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5256,13 @@
         <v>898162</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>1351</v>
@@ -5277,13 +5271,13 @@
         <v>1003781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>2281</v>
@@ -5292,13 +5286,13 @@
         <v>1901943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5360,13 @@
         <v>209266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>692</v>
@@ -5381,13 +5375,13 @@
         <v>456158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>915</v>
@@ -5396,13 +5390,13 @@
         <v>665425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5411,13 @@
         <v>3175962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>4675</v>
@@ -5432,13 +5426,13 @@
         <v>3379423</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>7828</v>
@@ -5447,13 +5441,13 @@
         <v>6555383</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42492CEF-142F-4699-A7E9-EC395A553FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4F4216-8F52-4AD4-864E-FDFDBA904C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F319112A-C10B-4738-A7E3-FDE12DE3D786}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E47DE76-63AF-4FFC-B663-EB1AB05C55BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="270">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -239,628 +239,616 @@
     <t>3,96%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>6,19%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5200BC97-23C8-4115-8F88-50AC2953DA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8DAEBE-7A2F-4211-BDD7-6F8CA82F52F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2207,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2249,7 +2237,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2270,7 +2258,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2300,7 +2288,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2335,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F79E55-1F3F-4051-AFA8-048316B02762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B04BBE9-078C-4175-9A75-B7E5835005F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EBFA86-9389-43B8-80F2-04413582245C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E204B0-33CA-459D-BFF9-2268AF5AC678}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,7 +3841,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3862,13 +3850,13 @@
         <v>116793</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3871,13 @@
         <v>999939</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -3898,13 +3886,13 @@
         <v>948612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>1821</v>
@@ -3913,13 +3901,13 @@
         <v>1948551</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3975,13 @@
         <v>27756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4002,13 +3990,13 @@
         <v>72276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -4017,13 +4005,13 @@
         <v>100032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4026,13 @@
         <v>731796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -4053,13 +4041,13 @@
         <v>712735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>1340</v>
@@ -4068,13 +4056,13 @@
         <v>1444531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4130,13 @@
         <v>42002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -4157,13 +4145,13 @@
         <v>115714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -4172,13 +4160,13 @@
         <v>157716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4181,13 @@
         <v>895565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>858</v>
@@ -4208,13 +4196,13 @@
         <v>928065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>1749</v>
@@ -4223,13 +4211,13 @@
         <v>1823630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4285,13 @@
         <v>110570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -4312,13 +4300,13 @@
         <v>361195</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>435</v>
@@ -4327,13 +4315,13 @@
         <v>471765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4336,13 @@
         <v>3283780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>3010</v>
@@ -4363,13 +4351,13 @@
         <v>3183347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>6134</v>
@@ -4378,13 +4366,13 @@
         <v>6467127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A781A-F7B0-41BC-B75B-E6BC37B7D2D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE809B81-5AAC-4C62-B833-54B9DF23CB78}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4478,7 +4466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4585,13 +4573,13 @@
         <v>7987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4600,13 +4588,13 @@
         <v>10678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4615,13 +4603,13 @@
         <v>18665</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4624,13 @@
         <v>93995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>221</v>
@@ -4651,13 +4639,13 @@
         <v>120055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>330</v>
@@ -4666,13 +4654,13 @@
         <v>214050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4728,13 @@
         <v>43969</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -4755,13 +4743,13 @@
         <v>71161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -4770,13 +4758,13 @@
         <v>115130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4779,13 @@
         <v>505854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>869</v>
@@ -4806,13 +4794,13 @@
         <v>548806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>1434</v>
@@ -4821,13 +4809,13 @@
         <v>1054660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4883,13 @@
         <v>46616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4910,13 +4898,13 @@
         <v>119721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -4925,13 +4913,13 @@
         <v>166336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4934,13 @@
         <v>992632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>1336</v>
@@ -4961,13 +4949,13 @@
         <v>940358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>2249</v>
@@ -4976,13 +4964,13 @@
         <v>1932991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5038,13 @@
         <v>43453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5065,13 +5053,13 @@
         <v>107947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5080,13 +5068,13 @@
         <v>151400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5089,13 @@
         <v>685319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>898</v>
@@ -5116,13 +5104,13 @@
         <v>766424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1534</v>
@@ -5131,13 +5119,13 @@
         <v>1451742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5193,13 @@
         <v>67241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -5220,13 +5208,13 @@
         <v>146651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>287</v>
@@ -5235,13 +5223,13 @@
         <v>213892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5244,13 @@
         <v>898162</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>1351</v>
@@ -5271,13 +5259,13 @@
         <v>1003781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>2281</v>
@@ -5286,13 +5274,13 @@
         <v>1901943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5348,13 @@
         <v>209266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>692</v>
@@ -5375,13 +5363,13 @@
         <v>456158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>915</v>
@@ -5390,13 +5378,13 @@
         <v>665425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5399,13 @@
         <v>3175962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>4675</v>
@@ -5426,28 +5414,28 @@
         <v>3379423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>7828</v>
       </c>
       <c r="N20" s="7">
-        <v>6555383</v>
+        <v>6555384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5477,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
